--- a/src/main/resources/Coding Decoded Backtracking SDE sheet.xlsx
+++ b/src/main/resources/Coding Decoded Backtracking SDE sheet.xlsx
@@ -1,17 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRAMAM11\My-Garrage\personal-workshop\dsa-practise\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1487A6-3C60-4F2F-8C83-A62A39FCC4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="30" yWindow="390" windowWidth="20460" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Video URL</t>
   </si>
@@ -149,82 +169,112 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/expression-add-operators/</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="15">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -232,7 +282,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -266,7 +316,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -280,94 +336,82 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -557,326 +601,357 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="61.5"/>
-    <col customWidth="1" min="2" max="2" width="44.63"/>
+    <col min="1" max="1" width="61.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-    </row>
-    <row r="5">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-    </row>
-    <row r="6">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-    </row>
-    <row r="7">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-    </row>
-    <row r="8">
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-    </row>
-    <row r="9">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-    </row>
-    <row r="10">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-    </row>
-    <row r="11">
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-    </row>
-    <row r="12">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-    </row>
-    <row r="13">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-    </row>
-    <row r="14">
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15">
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="5"/>
-    </row>
-    <row r="16">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
-    </row>
-    <row r="17">
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="D17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="E17" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
-    </row>
-    <row r="18">
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="D18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="E18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
-    </row>
-    <row r="19">
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="E19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="B6"/>
-    <hyperlink r:id="rId4" ref="D6"/>
-    <hyperlink r:id="rId5" ref="B7"/>
-    <hyperlink r:id="rId6" ref="D7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="D8"/>
-    <hyperlink r:id="rId9" ref="B9"/>
-    <hyperlink r:id="rId10" ref="D9"/>
-    <hyperlink r:id="rId11" ref="B10"/>
-    <hyperlink r:id="rId12" ref="D10"/>
-    <hyperlink r:id="rId13" ref="B11"/>
-    <hyperlink r:id="rId14" ref="D11"/>
-    <hyperlink r:id="rId15" ref="B12"/>
-    <hyperlink r:id="rId16" ref="D12"/>
-    <hyperlink r:id="rId17" ref="B13"/>
-    <hyperlink r:id="rId18" ref="D13"/>
-    <hyperlink r:id="rId19" ref="B14"/>
-    <hyperlink r:id="rId20" ref="D14"/>
-    <hyperlink r:id="rId21" ref="B16"/>
-    <hyperlink r:id="rId22" ref="D16"/>
-    <hyperlink r:id="rId23" ref="B17"/>
-    <hyperlink r:id="rId24" ref="D17"/>
-    <hyperlink r:id="rId25" ref="B18"/>
-    <hyperlink r:id="rId26" ref="D18"/>
-    <hyperlink r:id="rId27" ref="B19"/>
-    <hyperlink r:id="rId28" ref="D19"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E11" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C12" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E12" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C13" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C14" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E16" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E18" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C19" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
-  <drawing r:id="rId29"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/Coding Decoded Backtracking SDE sheet.xlsx
+++ b/src/main/resources/Coding Decoded Backtracking SDE sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRAMAM11\My-Garrage\personal-workshop\dsa-practise\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1487A6-3C60-4F2F-8C83-A62A39FCC4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5F3C0E-32DD-4963-8DBE-3B39DB52EC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="390" windowWidth="20460" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -200,61 +200,37 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -277,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +290,24 @@
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -341,9 +335,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -352,44 +346,53 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -644,13 +647,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="24" t="s">
         <v>5</v>
       </c>
     </row>
@@ -660,266 +663,266 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
